--- a/_doc_source/tables/param.xlsx
+++ b/_doc_source/tables/param.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monni\Documents\GitHub\cape_town_NEDUM\code capetown python\_docs\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monni\Documents\GitHub\cape_town_NEDUM\code capetown python\_doc_source\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F7ED49-ADF5-4338-813D-D71BE7097E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E7D733-2B3E-4C52-8096-3BD25B06345D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="190" yWindow="120" windowWidth="19010" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="102">
   <si>
     <t>baseline_year</t>
   </si>
@@ -238,9 +238,6 @@
     <t>precalculated_amenities</t>
   </si>
   <si>
-    <t>Amenity index (real value from 0 to 1) in each grid cell</t>
-  </si>
-  <si>
     <t>income_class_by_housing_type</t>
   </si>
   <si>
@@ -251,9 +248,6 @@
   </si>
   <si>
     <t>Value (in rands) of annual household income per income group and employment centre</t>
-  </si>
-  <si>
-    <t>pockets</t>
   </si>
   <si>
     <t>Disamenity index (real value from 0 to 1) for informal backyards in each grid cell</t>
@@ -318,6 +312,24 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>parameters_and_options</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>informal_pockets</t>
+  </si>
+  <si>
+    <t>compute_income</t>
+  </si>
+  <si>
+    <t>Amenity index (real value centered around 1) in each grid cell</t>
   </si>
 </sst>
 </file>
@@ -1161,399 +1173,481 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.81640625" customWidth="1"/>
+    <col min="4" max="4" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2">
         <v>2011</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3">
         <v>0.25</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4">
         <v>3.97</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5">
         <v>0.75</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6">
         <v>0.24</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7">
         <v>0.76</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8">
         <v>0.03</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9">
-        <v>2.68</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9">
+        <v>13.96</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10">
         <v>2500</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12">
         <v>14</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13">
         <v>40</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14">
         <v>70</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15">
         <v>1000</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16">
         <v>3000</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="C17">
-        <v>0.53</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17">
+        <v>0.27</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18">
         <v>127000</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19">
         <v>0.7</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20">
         <v>0.45</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21">
         <v>0.4</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>42</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22">
         <v>6</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23">
         <v>80</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>46</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24">
         <v>10</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>48</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25">
         <v>807.2</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>50</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26">
         <v>70.7</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>52</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27">
         <v>4</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1561,97 +1655,118 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>57</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>60</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30">
         <v>4</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>62</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>64</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32">
         <v>3</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>66</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33">
         <v>100</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>68</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34">
         <v>31.64</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -1659,164 +1774,200 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="1" t="s">
+    </row>
+    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>74</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
       </c>
       <c r="C37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E37" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
       <c r="C38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E38" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
       <c r="C39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>80</v>
       </c>
-      <c r="B40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>84</v>
       </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43">
+        <v>4.32</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>4.32</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45">
+        <v>6.24</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>6.24</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46">
+        <v>400</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>400</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
